--- a/test/fixtures/files/TestGenericTemplateBad.xlsx
+++ b/test/fixtures/files/TestGenericTemplateBad.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghamilton/devel/CDC/SDPV/SDP-Vocabulary-Service/test/fixtures/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apellitieri/Desktop/CDC/SDP-Vocabulary-Service/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8CE48D-88E8-E547-8644-C00F0457E13C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B939577D-DEA6-C34C-BB4B-B07DE13E5FFD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="25600" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9420" yWindow="3020" windowWidth="25600" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey Questions" sheetId="8" r:id="rId1"/>
     <sheet name="RS Activate Deactivate Flag" sheetId="4" r:id="rId2"/>
     <sheet name="RS Communication Doc Type" sheetId="9" r:id="rId3"/>
-    <sheet name="Tag 1" sheetId="10" r:id="rId4"/>
+    <sheet name="CSM 1" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
   <si>
     <t>Response Set Name</t>
   </si>
@@ -279,21 +279,6 @@
     <t>https://phinvads.cdc.gov/vads/ViewValueSet.action?oid=2.16.840.1.113883.6.90</t>
   </si>
   <si>
-    <t>Question Tag Table (O)</t>
-  </si>
-  <si>
-    <t>Tag 1</t>
-  </si>
-  <si>
-    <t>Tag Name (R)</t>
-  </si>
-  <si>
-    <t>Tag Value (R)</t>
-  </si>
-  <si>
-    <t>Code System Identifier (O)</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
@@ -307,6 +292,30 @@
   </si>
   <si>
     <t>System</t>
+  </si>
+  <si>
+    <t>Question Data Collection Method (O)</t>
+  </si>
+  <si>
+    <t>Question Content Stage (O)</t>
+  </si>
+  <si>
+    <t>Question Keyword Tags (O)</t>
+  </si>
+  <si>
+    <t>Code System Mappings Table (O)</t>
+  </si>
+  <si>
+    <t>CSM 1</t>
+  </si>
+  <si>
+    <t>Concept Name (R)</t>
+  </si>
+  <si>
+    <t>Value (R)</t>
+  </si>
+  <si>
+    <t>Code System Identifier (R)</t>
   </si>
 </sst>
 </file>
@@ -365,7 +374,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,8 +453,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -468,13 +483,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -626,7 +665,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -946,10 +990,10 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:J210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -957,13 +1001,13 @@
     <col min="1" max="1" width="34.5" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.83203125" style="4" customWidth="1"/>
-    <col min="4" max="5" width="13.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="4"/>
+    <col min="4" max="8" width="13.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>3</v>
       </c>
@@ -980,39 +1024,48 @@
         <v>5</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
       <c r="D2" s="45"/>
-      <c r="F2" s="48"/>
-    </row>
-    <row r="3" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="48"/>
+    </row>
+    <row r="3" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="26"/>
       <c r="D3" s="29"/>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="8"/>
       <c r="D4" s="27"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" s="51" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" s="51" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
         <v>13</v>
       </c>
@@ -1028,12 +1081,15 @@
       <c r="E5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="57"/>
-    </row>
-    <row r="6" spans="1:7" s="51" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="57"/>
+    </row>
+    <row r="6" spans="1:10" s="51" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="s">
         <v>15</v>
       </c>
@@ -1047,10 +1103,13 @@
       <c r="E6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="57"/>
-    </row>
-    <row r="7" spans="1:7" s="51" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+    </row>
+    <row r="7" spans="1:10" s="51" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="55" t="s">
         <v>17</v>
       </c>
@@ -1064,10 +1123,13 @@
       <c r="E7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57"/>
-    </row>
-    <row r="8" spans="1:7" s="51" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="57"/>
+    </row>
+    <row r="8" spans="1:10" s="51" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="55" t="s">
         <v>19</v>
       </c>
@@ -1081,10 +1143,13 @@
       <c r="E8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
-    </row>
-    <row r="9" spans="1:7" s="51" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
+    </row>
+    <row r="9" spans="1:10" s="51" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="55" t="s">
         <v>21</v>
       </c>
@@ -1098,10 +1163,13 @@
       <c r="E9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
-    </row>
-    <row r="10" spans="1:7" s="51" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="57"/>
+    </row>
+    <row r="10" spans="1:10" s="51" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="55" t="s">
         <v>23</v>
       </c>
@@ -1115,10 +1183,13 @@
       <c r="E10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="57"/>
-    </row>
-    <row r="11" spans="1:7" s="51" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="57"/>
+    </row>
+    <row r="11" spans="1:10" s="51" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="55" t="s">
         <v>25</v>
       </c>
@@ -1132,28 +1203,31 @@
       <c r="E11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
-    </row>
-    <row r="12" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="57"/>
+    </row>
+    <row r="12" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="27"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="27"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="55" t="s">
         <v>32</v>
       </c>
@@ -1167,10 +1241,13 @@
       <c r="E14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="55" t="s">
         <v>34</v>
       </c>
@@ -1184,10 +1261,13 @@
       <c r="E15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="s">
         <v>36</v>
       </c>
@@ -1201,10 +1281,13 @@
       <c r="E16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="55" t="s">
         <v>38</v>
       </c>
@@ -1218,10 +1301,13 @@
       <c r="E17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="55" t="s">
         <v>40</v>
       </c>
@@ -1235,10 +1321,13 @@
       <c r="E18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="14"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="H18" s="15"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="55" t="s">
         <v>42</v>
       </c>
@@ -1254,8 +1343,11 @@
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>44</v>
       </c>
@@ -1263,7 +1355,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="27"/>
     </row>
-    <row r="21" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
         <v>45</v>
       </c>
@@ -1271,7 +1363,7 @@
       <c r="C21" s="25"/>
       <c r="D21" s="29"/>
     </row>
-    <row r="22" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="31" t="s">
         <v>48</v>
       </c>
@@ -1279,7 +1371,7 @@
       <c r="C22" s="33"/>
       <c r="D22" s="32"/>
     </row>
-    <row r="23" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
         <v>50</v>
       </c>
@@ -1287,7 +1379,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="35"/>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="55" t="s">
         <v>52</v>
       </c>
@@ -1303,8 +1395,11 @@
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="55" t="s">
         <v>54</v>
       </c>
@@ -1320,8 +1415,11 @@
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+    </row>
+    <row r="26" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="55" t="s">
         <v>56</v>
       </c>
@@ -1337,8 +1435,11 @@
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="55" t="s">
         <v>58</v>
       </c>
@@ -1354,36 +1455,39 @@
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+    </row>
+    <row r="28" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="38" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="46"/>
     </row>
-    <row r="31" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="41" t="s">
         <v>61</v>
       </c>
       <c r="C31" s="43"/>
       <c r="D31" s="52"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="59" t="s">
         <v>62</v>
       </c>
@@ -1397,8 +1501,11 @@
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
-    </row>
-    <row r="33" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+    </row>
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A33" s="59" t="s">
         <v>64</v>
       </c>
@@ -1412,8 +1519,11 @@
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="59" t="s">
         <v>66</v>
       </c>
@@ -1425,8 +1535,11 @@
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+    </row>
+    <row r="35" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="59" t="s">
         <v>68</v>
       </c>
@@ -1440,714 +1553,1239 @@
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
-    </row>
-    <row r="36" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+    </row>
+    <row r="36" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="41" t="s">
         <v>71</v>
       </c>
       <c r="D36" s="52"/>
     </row>
-    <row r="37" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="46"/>
       <c r="E37" s="46"/>
-    </row>
-    <row r="38" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+    </row>
+    <row r="38" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="47" t="s">
         <v>47</v>
       </c>
       <c r="D38" s="45"/>
       <c r="E38" s="45"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
-    </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-    </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+    </row>
+    <row r="106" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-    </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-    </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+    </row>
+    <row r="108" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
-    </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-    </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+    </row>
+    <row r="110" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
-    </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+    </row>
+    <row r="111" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
-    </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+    </row>
+    <row r="112" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-    </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+    </row>
+    <row r="113" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-    </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+    </row>
+    <row r="114" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
-    </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
-    </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+    </row>
+    <row r="116" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
-    </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+    </row>
+    <row r="117" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
-    </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+    </row>
+    <row r="118" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
-    </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+    </row>
+    <row r="119" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
-    </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+    </row>
+    <row r="120" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
-    </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+    </row>
+    <row r="121" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
-    </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+    </row>
+    <row r="122" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
-    </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+    </row>
+    <row r="123" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
-    </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+    </row>
+    <row r="124" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
-    </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-    </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
-    </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
-    </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+    </row>
+    <row r="128" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
-    </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+    </row>
+    <row r="129" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
-    </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+    </row>
+    <row r="130" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
-    </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+    </row>
+    <row r="131" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
-    </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+    </row>
+    <row r="132" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
-    </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+    </row>
+    <row r="133" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
-    </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+    </row>
+    <row r="134" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
-    </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+    </row>
+    <row r="135" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
-    </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+    </row>
+    <row r="136" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
-    </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+    </row>
+    <row r="137" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
-    </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+    </row>
+    <row r="138" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
-    </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+    </row>
+    <row r="139" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
-    </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+    </row>
+    <row r="140" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
-    </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+    </row>
+    <row r="141" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
-    </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+    </row>
+    <row r="142" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
-    </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+    </row>
+    <row r="143" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
-    </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+    </row>
+    <row r="144" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
-    </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+    </row>
+    <row r="145" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
-    </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+    </row>
+    <row r="146" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
-    </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+    </row>
+    <row r="147" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
-    </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+    </row>
+    <row r="148" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
-    </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+    </row>
+    <row r="149" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
-    </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+    </row>
+    <row r="150" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
-    </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+    </row>
+    <row r="151" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
-    </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+    </row>
+    <row r="152" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
-    </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+    </row>
+    <row r="153" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
-    </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+    </row>
+    <row r="154" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
-    </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+    </row>
+    <row r="155" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
-    </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+    </row>
+    <row r="156" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
-    </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+    </row>
+    <row r="157" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
-    </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+    </row>
+    <row r="158" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
-    </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+    </row>
+    <row r="159" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
-    </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+    </row>
+    <row r="160" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
-    </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+    </row>
+    <row r="161" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
-    </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+    </row>
+    <row r="162" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
-    </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+    </row>
+    <row r="163" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
-    </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+    </row>
+    <row r="164" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
-    </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+    </row>
+    <row r="165" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
-    </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+    </row>
+    <row r="166" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
-    </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+    </row>
+    <row r="167" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
-    </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+    </row>
+    <row r="168" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
-    </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+    </row>
+    <row r="169" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
-    </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+    </row>
+    <row r="170" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
-    </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+    </row>
+    <row r="171" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
-    </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+    </row>
+    <row r="172" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
-    </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+    </row>
+    <row r="173" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
-    </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+    </row>
+    <row r="174" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
-    </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+    </row>
+    <row r="175" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
-    </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+    </row>
+    <row r="176" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
-    </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+    </row>
+    <row r="177" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
-    </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+    </row>
+    <row r="178" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
-    </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+    </row>
+    <row r="179" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
-    </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+    </row>
+    <row r="180" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
-    </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+    </row>
+    <row r="181" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
-    </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+    </row>
+    <row r="182" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
-    </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
+    </row>
+    <row r="183" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
-    </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+    </row>
+    <row r="184" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
-    </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+    </row>
+    <row r="185" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
-    </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+    </row>
+    <row r="186" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
-    </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+    </row>
+    <row r="187" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
-    </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
+    </row>
+    <row r="188" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
-    </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
+    </row>
+    <row r="189" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
-    </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+    </row>
+    <row r="190" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
-    </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+    </row>
+    <row r="191" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
-    </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3"/>
+    </row>
+    <row r="192" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
-    </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
+    </row>
+    <row r="193" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
-    </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+    </row>
+    <row r="194" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
-    </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
+    </row>
+    <row r="195" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
-    </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+    </row>
+    <row r="196" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
-    </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+    </row>
+    <row r="197" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
-    </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+    </row>
+    <row r="198" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
-    </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+    </row>
+    <row r="199" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
-    </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+    </row>
+    <row r="200" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
-    </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+    </row>
+    <row r="201" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
-    </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
+    </row>
+    <row r="202" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
-    </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+    </row>
+    <row r="203" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
-    </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+    </row>
+    <row r="204" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
-    </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+    </row>
+    <row r="205" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
-    </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+    </row>
+    <row r="206" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
-    </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+    </row>
+    <row r="207" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
-    </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+    </row>
+    <row r="208" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
-    </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+    </row>
+    <row r="209" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
-    </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+    </row>
+    <row r="210" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2204,7 +2842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
         <v>75</v>
       </c>
@@ -2302,7 +2940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" s="53" t="s">
         <v>62</v>
       </c>
@@ -2359,8 +2997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F929FC0-AC6E-6540-9F1E-EF60494A7DA1}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2368,37 +3006,37 @@
     <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="63" t="s">
-        <v>85</v>
+    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
